--- a/questions.xlsx
+++ b/questions.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PSC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\PSC\Documents\study\CS-practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C74F586-3913-42F8-BB7F-061140642BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F53A4DC-D04D-47F2-A125-54584FD2E778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8565" yWindow="885" windowWidth="21600" windowHeight="14115" xr2:uid="{B2E1139B-172C-4E69-8654-4840747DAA02}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B2E1139B-172C-4E69-8654-4840747DAA02}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="네트워크" sheetId="1" r:id="rId1"/>
+    <sheet name="데이터베이스" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="148">
   <si>
     <t>질문</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -361,6 +362,270 @@
   </si>
   <si>
     <t>HTTP/3에 대하여 설명하시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 데이터베이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1 데이터베이스의 기본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스란 무엇인지 간략하게 설명하시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔티티란 무엇인지 간략하게 설명하시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약한 엔티티와 강한 엔티티의 차이는 무엇인가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>릴레이션은 무엇인가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성(attribute)를 간단하게 설명해보세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도메인(domain)을 간단하게 설명해보세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필드와 레코드, 튜플에 대해 간단히 설명하시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필드 타입 중 문자 타입의 예시는 무엇이 있나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필드 타입 중 날짜 타입의 예시는 무엇이 있나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대용량 데이터를 저장하기 위한 타입에는 무엇이 있나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본키에 대해 간략히 설명하시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자연키에 대해 간략히 설명하시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인조키에 대해 간략히 설명하시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외래키에 대해 간략히 설명하시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후보키에 대해 간략히 설명하시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대체키에 대해 간략히 설명하시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슈퍼키에 대해 간략히 설명하시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2 ERD와 정규화 과정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERD에 대해 간략히 설명하시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규화는 무엇인가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제1정규형을 설명해보세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제2정규형을 설명해보세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제3정규형을 설명해보세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보이스/코드 정규형을 설명해보세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3 트랜잭션과 무결성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACID라고 부르는 트랜잭션의 특성 4가지는 각각 무엇인가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트랜잭션 전파에 대해 간략히 설명하시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>격리 수준에는 어떤 것들이 있나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>격리 수준에 따라 발생하는 현상에는 무엇들이 있나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팬텀 리드에 대해 간략히 설명하시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반복 가능하지 않은 조회(non-repeatable-read)를 간략히 설명하시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더티 리드에 대해 간략히 설명하시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SERIALIZABLE 격리 수준을 간략히 설명하시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPEATABLE_READ 격리 수준을 간략히 설명하시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>READ_COMMITTED 격리 수준을 간략히 설명하시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>READ_UNCOMMITTED 격리 수준을 간략히 설명하시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트랜잭션의 4가지 특징 중 하나, 지속성에 대해 간략히 설명하시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트랜잭션의 4가지 특징 중 하나, 일관성에 대해 간략히 설명하시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트랜잭션의 4가지 특징 중 하나, 격리성에 대해 간략히 설명하시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트랜잭션의 4가지 특징 중 하나, 원자성에 대해 간략히 설명하시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스 무결성에는 어떤 것들이 있나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.4 데이터베이스의 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관계형으로 구성된 DBMS는 어떤 것들이 있나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관계형이 아닌 DBMS는 무엇이 있나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostgreSQL이 무언지 간략히 설명하시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MongoDB에 대해 간략히 설명하시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redis에 대해 간략히 설명하시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5 인덱스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인덱스가 무언지 간략히 설명하시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인덱스를 구성하는 자료구조는 무엇인지 설명하시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인덱스를 사용하는 이유는 무엇인가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL에서 인덱스를 만드는 방법은 무엇인가요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MongoDB에서 인덱스를 만드는 방법은 무엇인가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인덱스를 최적화하는 방법에 대해 설명해보시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.6 조인의 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스에서 조인이란 무엇인가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내부 조인에 대해 간략히 설명하시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Left outer join에 대해 간략히 설명하시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right outer join에 대해 간략히 설명하시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Full outer  join에 대해 간략히 설명하시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.7 조인의 원리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중첩 루프 조인에 대해 간략히 설명하시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정렬 병합 조인에 대해 간략히 설명하시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해시 조인이 무언지 설명하시오.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -727,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D91802-65BD-40E9-B491-DD2DBB8FB378}">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1752,7 +2017,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{751DEDF3-D71D-43A1-9A4C-7031608852EE}">
       <formula1>"FALSE"</formula1>
     </dataValidation>
@@ -1760,4 +2025,861 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF478AE4-0C3A-423C-AF40-EDC8417BBB95}">
+  <dimension ref="A1:E59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="3" max="3" width="58.875" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D40">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" t="s">
+        <v>129</v>
+      </c>
+      <c r="D44">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" t="s">
+        <v>132</v>
+      </c>
+      <c r="D46">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" t="s">
+        <v>131</v>
+      </c>
+      <c r="C47" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" t="s">
+        <v>134</v>
+      </c>
+      <c r="D48">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49" t="s">
+        <v>131</v>
+      </c>
+      <c r="C49" t="s">
+        <v>135</v>
+      </c>
+      <c r="D49">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" t="s">
+        <v>131</v>
+      </c>
+      <c r="C50" t="s">
+        <v>136</v>
+      </c>
+      <c r="D50">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" t="s">
+        <v>131</v>
+      </c>
+      <c r="C51" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" t="s">
+        <v>138</v>
+      </c>
+      <c r="C52" t="s">
+        <v>139</v>
+      </c>
+      <c r="D52">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" t="s">
+        <v>140</v>
+      </c>
+      <c r="D53">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54" t="s">
+        <v>141</v>
+      </c>
+      <c r="D54">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>82</v>
+      </c>
+      <c r="B55" t="s">
+        <v>138</v>
+      </c>
+      <c r="C55" t="s">
+        <v>142</v>
+      </c>
+      <c r="D55">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>82</v>
+      </c>
+      <c r="B56" t="s">
+        <v>138</v>
+      </c>
+      <c r="C56" t="s">
+        <v>143</v>
+      </c>
+      <c r="D56">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" t="s">
+        <v>145</v>
+      </c>
+      <c r="D57">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>82</v>
+      </c>
+      <c r="B58" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" t="s">
+        <v>146</v>
+      </c>
+      <c r="D58">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59" t="s">
+        <v>144</v>
+      </c>
+      <c r="C59" t="s">
+        <v>147</v>
+      </c>
+      <c r="D59">
+        <v>227</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{E986192A-DA1F-4026-B3C7-03FDD4035AA7}">
+      <formula1>"FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>